--- a/AirBNB/Airbnb Description.xlsx
+++ b/AirBNB/Airbnb Description.xlsx
@@ -1,26 +1,577 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B60FFCD-9360-4B18-A6B0-95ECDB4EF9C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
+  <si>
+    <r>
+      <t>Column Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Unique Values</t>
+  </si>
+  <si>
+    <t>Nan Values</t>
+  </si>
+  <si>
+    <t>In/Drop</t>
+  </si>
+  <si>
+    <r>
+      <t>Num/Cat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Imputation Method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>NA's After Imputation</t>
+  </si>
+  <si>
+    <t>Upgrades/Drop Reason</t>
+  </si>
+  <si>
+    <r>
+      <t>Tableau </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>ID </t>
+  </si>
+  <si>
+    <t>Drop </t>
+  </si>
+  <si>
+    <t>- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log_price </t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Property_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cat(35 dummies)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t>Room_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>In </t>
+  </si>
+  <si>
+    <r>
+      <t>Cat (3 dummies)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>amenities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Text - needs to be categorised</t>
+  </si>
+  <si>
+    <t>Find the ones which are really important.</t>
+  </si>
+  <si>
+    <r>
+      <t>accomodates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bathrooms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Bathroom ~ No. of Bedrooms</t>
+  </si>
+  <si>
+    <r>
+      <t>Bed_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cat (2 dummies)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cancellation_policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cat (5 dummies)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cleaning_fee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cat(Binary)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>city</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cat (6 dummies)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>description </t>
+  </si>
+  <si>
+    <t>Textual Description.</t>
+  </si>
+  <si>
+    <t>first_review </t>
+  </si>
+  <si>
+    <t>No trend obs. On Tableau.</t>
+  </si>
+  <si>
+    <r>
+      <t>host_has_profile_pic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Cat(2)</t>
+  </si>
+  <si>
+    <t>Mode?</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <r>
+      <t>host_identity_verified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>host_response_rate </t>
+  </si>
+  <si>
+    <t>Check Tableau. 43K entries have 100%. Rest all fall in a st. line.</t>
+  </si>
+  <si>
+    <t>host_since </t>
+  </si>
+  <si>
+    <t>Can be bucketed into Years. For now, no observable trend</t>
+  </si>
+  <si>
+    <r>
+      <t>instant_bookable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cat (Binary)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>last_review </t>
+  </si>
+  <si>
+    <t>latitude </t>
+  </si>
+  <si>
+    <t>longitude </t>
+  </si>
+  <si>
+    <t>name </t>
+  </si>
+  <si>
+    <t>neighbourhood </t>
+  </si>
+  <si>
+    <t>Either Zipcode or Neighbourhood. Bucketing?</t>
+  </si>
+  <si>
+    <r>
+      <t>number_of_reviews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>review_scores_rating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Weighted avg?</t>
+  </si>
+  <si>
+    <t>Not Needed</t>
+  </si>
+  <si>
+    <t>zipcode </t>
+  </si>
+  <si>
+    <r>
+      <t>bedrooms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t># bedrooms = # Baths</t>
+  </si>
+  <si>
+    <r>
+      <t>beds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Beds = Bedrooms * 2</t>
+  </si>
+  <si>
+    <t>Drop columns still having NAN</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>Just an identifier</t>
+  </si>
+  <si>
+    <t>Not needed, already city,neighbourhood info is present</t>
+  </si>
+  <si>
+    <t>Should be Included. If not used for a long time then price should fall.</t>
+  </si>
+  <si>
+    <t>Name of property not relevant</t>
+  </si>
+  <si>
+    <t>thumbnail_url </t>
+  </si>
+  <si>
+    <t>Bad pictures can have a more negative effects.</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Percentage - Numerical</t>
+  </si>
+  <si>
+    <t>Url Text</t>
+  </si>
+  <si>
+    <t>Better to use neighbourhoods, and find nearest neighbourhood for a new zipcode</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +579,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +656,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +994,990 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="51.54296875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
+        <v>74111</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>767</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <v>67122</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3">
+        <v>73479</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2554</v>
+      </c>
+      <c r="C14" s="3">
+        <v>15864</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>188</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>188</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18299</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3087</v>
+      </c>
+      <c r="C18" s="3">
+        <v>188</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1371</v>
+      </c>
+      <c r="C20" s="3">
+        <v>15827</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3">
+        <v>74111</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="3">
+        <v>74111</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3">
+        <v>73359</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="3">
+        <v>619</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6872</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2">
+        <v>371</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16722</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="3">
+        <v>65883</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8216</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3">
+        <v>769</v>
+      </c>
+      <c r="C28" s="3">
+        <v>966</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="2">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2">
+        <v>91</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="5">
+        <v>5</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2">
+        <v>131</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="5">
+        <v>3</v>
+      </c>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G31" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0C3DF6AFFD8E44CB7C03543265AC8FC" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15340f0f81104d3b681a17d135867ae1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9f371a4-701f-4c31-9027-5e88191c67d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="28a670324216d052d0c71546ca573fa4" ns2:_="">
+    <xsd:import namespace="f9f371a4-701f-4c31-9027-5e88191c67d2"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f9f371a4-701f-4c31-9027-5e88191c67d2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6B5C359-5810-4AF9-8912-C02128B63376}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53B040F7-0E8A-4FA8-944D-082EAD8B800F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0367E06-4BD6-4B4A-AE05-786D9530947A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f9f371a4-701f-4c31-9027-5e88191c67d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>